--- a/data/trans_dic/P25C$otrosprofesionales_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Provincia-trans_dic.xlsx
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02169688483470474</v>
+        <v>0.02169688483470475</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.007812973597538141</v>
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.07342117885846317</v>
+        <v>0.07611192217980618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02702029913432053</v>
+        <v>0.02788484516328381</v>
       </c>
     </row>
     <row r="10">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01189645464325964</v>
+        <v>0.01189645464325965</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.005033020575362047</v>
@@ -691,10 +691,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0537388075639727</v>
+        <v>0.07344543612143205</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02561313592284546</v>
+        <v>0.02495825637896</v>
       </c>
     </row>
     <row r="13">
@@ -715,7 +715,7 @@
         <v>0.02614186922343333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02113051892174177</v>
+        <v>0.02113051892174176</v>
       </c>
     </row>
     <row r="14">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008250708410345623</v>
+        <v>0.008412759853234572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008031440625108462</v>
+        <v>0.006316232330059607</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06343921994156924</v>
+        <v>0.06272319257059562</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07476550476177517</v>
+        <v>0.07123373133699369</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05135480249707609</v>
+        <v>0.04950409545871089</v>
       </c>
     </row>
     <row r="16">
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006538077992664908</v>
+        <v>0.006288875566845474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005394382028211824</v>
+        <v>0.005422387509526371</v>
       </c>
     </row>
     <row r="24">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03498829224834806</v>
+        <v>0.03246324410162351</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06366533713019659</v>
+        <v>0.06948297937485552</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03269566424800725</v>
+        <v>0.03473295684256659</v>
       </c>
     </row>
     <row r="25">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005491274304751767</v>
+        <v>0.005692528346379629</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004177034471641868</v>
+        <v>0.004185931215130316</v>
       </c>
     </row>
     <row r="27">
@@ -939,13 +939,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05272747717260141</v>
+        <v>0.0477341458829059</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0718504380268</v>
+        <v>0.08374876302939445</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04114302663433671</v>
+        <v>0.03786037337644961</v>
       </c>
     </row>
     <row r="28">
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.01938400141814601</v>
@@ -977,13 +977,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
     </row>
     <row r="30">
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="31">
@@ -1222,10 +1222,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4900</v>
+        <v>5080</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5008</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="12">
@@ -1290,10 +1290,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>2667</v>
+        <v>3646</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3005</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="16">
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1386</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="19">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6815</v>
+        <v>6738</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4867</v>
+        <v>4637</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8860</v>
+        <v>8541</v>
       </c>
     </row>
     <row r="20">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="31">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4981</v>
+        <v>4621</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6838</v>
+        <v>7463</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8166</v>
+        <v>8675</v>
       </c>
     </row>
     <row r="32">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5987</v>
+        <v>5420</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3179</v>
+        <v>3705</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6492</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="36">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="39">
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
     </row>
     <row r="40">
